--- a/LubanTmpl/Datas/__beans__.xlsx
+++ b/LubanTmpl/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Thirds\XIHFrameWork\LubanTmpl\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B418CD23-8D26-4D96-8C00-05BF8807188D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B087C43-0ED9-42D1-AD41-97A027BDDA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="720" windowWidth="27750" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28275" yWindow="915" windowWidth="25695" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,34 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>variants</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父类(名字可以是全名，或者不包含命名空间，因为默认跟子类相同的命名空间)</t>
+  </si>
+  <si>
+    <t>是否值类型</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +128,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -153,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -440,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +487,7 @@
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,19 +501,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
@@ -490,53 +522,73 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J1:P1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
